--- a/Team-Data/2008-09/12-7-2008-09.xlsx
+++ b/Team-Data/2008-09/12-7-2008-09.xlsx
@@ -811,13 +811,13 @@
         <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -853,22 +853,22 @@
         <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -880,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.905</v>
       </c>
       <c r="H3" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J3" t="n">
-        <v>75.8</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="O3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="V3" t="n">
         <v>15.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="O3" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.772</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>15.7</v>
       </c>
       <c r="W3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -1017,13 +1017,13 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,40 +1032,40 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1175,7 +1175,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1196,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1205,13 +1205,13 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
@@ -1229,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>10</v>
@@ -1241,10 +1241,10 @@
         <v>30</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1279,106 +1279,106 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
         <v>17</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
@@ -1390,46 +1390,46 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
         <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
         <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1461,124 +1461,124 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
         <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO6" t="n">
         <v>7</v>
       </c>
-      <c r="AN6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>13</v>
@@ -1590,10 +1590,10 @@
         <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1605,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1721,7 +1721,7 @@
         <v>3.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>12</v>
@@ -1909,16 +1909,16 @@
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1978,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -2115,16 +2115,16 @@
         <v>25</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
@@ -2133,19 +2133,19 @@
         <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW9" t="n">
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>13</v>
@@ -2267,7 +2267,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2279,10 +2279,10 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2291,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="n">
         <v>14</v>
@@ -2309,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>21</v>
@@ -2449,37 +2449,37 @@
         <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
         <v>5</v>
@@ -2494,10 +2494,10 @@
         <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2631,13 +2631,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
@@ -2649,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2658,7 +2658,7 @@
         <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
         <v>15</v>
@@ -2673,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2700,10 +2700,10 @@
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2813,7 +2813,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2825,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>20</v>
@@ -2834,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.882</v>
+        <v>0.889</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.7</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.476</v>
@@ -2944,58 +2944,58 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.373</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>20.9</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>27.8</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.754</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="X14" t="n">
         <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.4</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.3</v>
+        <v>108.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -3004,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -3025,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="n">
         <v>2</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3189,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>25</v>
@@ -3213,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>12</v>
@@ -3246,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3359,7 +3359,7 @@
         <v>1.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3371,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3383,7 +3383,7 @@
         <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM16" t="n">
         <v>4</v>
@@ -3392,7 +3392,7 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3401,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0.45</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.432</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>4.9</v>
@@ -3493,100 +3493,100 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>26.3</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>31.3</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.4</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
         <v>20.5</v>
       </c>
       <c r="V17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
         <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>5</v>
@@ -3607,16 +3607,16 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3738,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3765,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>26</v>
@@ -3777,7 +3777,7 @@
         <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
         <v>29</v>
@@ -3789,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3905,7 +3905,7 @@
         <v>-1</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
@@ -3920,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN19" t="n">
         <v>6</v>
@@ -3941,10 +3941,10 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
         <v>18</v>
@@ -3953,13 +3953,13 @@
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3971,7 +3971,7 @@
         <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>10</v>
@@ -4087,7 +4087,7 @@
         <v>4.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -4123,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4144,7 +4144,7 @@
         <v>9</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
@@ -4156,13 +4156,13 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4269,28 +4269,28 @@
         <v>-4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
         <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4341,7 +4341,7 @@
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4469,7 +4469,7 @@
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>16</v>
@@ -4490,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
@@ -4505,7 +4505,7 @@
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>15</v>
@@ -4633,10 +4633,10 @@
         <v>5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>4</v>
@@ -4645,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4666,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4702,13 +4702,13 @@
         <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
         <v>10</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4821,22 +4821,22 @@
         <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4848,7 +4848,7 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
         <v>22</v>
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT24" t="n">
         <v>3</v>
@@ -5009,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>11</v>
@@ -5027,10 +5027,10 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5042,7 +5042,7 @@
         <v>28</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
@@ -5101,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
         <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="O26" t="n">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.773</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
         <v>13.2</v>
@@ -5161,64 +5161,64 @@
         <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.8</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AN26" t="n">
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5227,16 +5227,16 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5245,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5382,10 +5382,10 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5394,10 +5394,10 @@
         <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5430,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5543,7 +5543,7 @@
         <v>2.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5558,7 +5558,7 @@
         <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5570,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>5</v>
@@ -5728,7 +5728,7 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
         <v>17</v>
@@ -5743,7 +5743,7 @@
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>18</v>
@@ -5758,7 +5758,7 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>19</v>
@@ -5770,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
@@ -5922,10 +5922,10 @@
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5937,19 +5937,19 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>20</v>
@@ -6137,13 +6137,13 @@
         <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>

--- a/Team-Data/2008-09/12-7-2008-09.xlsx
+++ b/Team-Data/2008-09/12-7-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -759,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -792,16 +859,16 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -813,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -860,67 +927,67 @@
         <v>0.905</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.1</v>
+        <v>35.7</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.474</v>
+        <v>0.471</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="M3" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.358</v>
+        <v>0.339</v>
       </c>
       <c r="O3" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="P3" t="n">
         <v>29.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.764</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="U3" t="n">
-        <v>21.5</v>
+        <v>21.1</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA3" t="n">
         <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>9.4</v>
@@ -938,25 +1005,25 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,16 +1032,16 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU3" t="n">
         <v>9</v>
@@ -983,22 +1050,22 @@
         <v>23</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>6</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>3</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1114,13 +1181,13 @@
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>23</v>
@@ -1138,19 +1205,19 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
         <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS4" t="n">
         <v>30</v>
@@ -1162,7 +1229,7 @@
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>10</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1212,109 +1279,109 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.434</v>
+        <v>0.437</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O5" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.1</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W5" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG5" t="n">
         <v>17</v>
       </c>
-      <c r="AG5" t="n">
-        <v>20</v>
-      </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
@@ -1323,46 +1390,46 @@
         <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1394,139 +1461,139 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895</v>
+        <v>0.85</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>38.5</v>
+        <v>38.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.777</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T6" t="n">
         <v>42.8</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.5</v>
+        <v>103.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.3</v>
+        <v>13.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
         <v>2</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>13</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
@@ -1538,13 +1605,13 @@
         <v>2</v>
       </c>
       <c r="AZ6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1727,13 @@
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1690,7 +1757,7 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>5</v>
@@ -1705,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1714,19 +1781,19 @@
         <v>13</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1839,19 +1906,19 @@
         <v>2</v>
       </c>
       <c r="AE8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF8" t="n">
         <v>6</v>
       </c>
-      <c r="AF8" t="n">
-        <v>7</v>
-      </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1887,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1899,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>21</v>
@@ -1911,7 +1978,7 @@
         <v>5</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.579</v>
+        <v>0.611</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.367</v>
+        <v>0.382</v>
       </c>
       <c r="O9" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T9" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V9" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W9" t="n">
         <v>6.9</v>
@@ -2003,91 +2070,91 @@
         <v>5.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL9" t="n">
         <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>21</v>
       </c>
       <c r="AM9" t="n">
         <v>25</v>
       </c>
       <c r="AN9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP9" t="n">
         <v>13</v>
       </c>
-      <c r="AO9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -2212,16 +2279,16 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>20</v>
@@ -2242,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>21</v>
@@ -2263,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="AY10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -2388,34 +2455,34 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM11" t="n">
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" t="n">
         <v>12</v>
@@ -2427,10 +2494,10 @@
         <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>25</v>
@@ -2439,7 +2506,7 @@
         <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -2486,118 +2553,118 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
       </c>
       <c r="M12" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>16.7</v>
+        <v>16.2</v>
       </c>
       <c r="P12" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.779</v>
       </c>
       <c r="R12" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S12" t="n">
         <v>33.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="W12" t="n">
         <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>20.9</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>3</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP12" t="n">
         <v>28</v>
@@ -2606,10 +2673,10 @@
         <v>7</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2618,22 +2685,22 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BB12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -2758,16 +2825,16 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2788,13 +2855,13 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2803,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -2865,70 +2932,70 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>84.8</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.372</v>
+        <v>0.383</v>
       </c>
       <c r="O14" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>28.5</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>32.9</v>
+        <v>33.2</v>
       </c>
       <c r="T14" t="n">
         <v>46.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2937,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -2982,22 +3049,22 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -3122,10 +3189,10 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ15" t="n">
         <v>25</v>
@@ -3146,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3164,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW15" t="n">
         <v>12</v>
@@ -3179,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="BA15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -3304,7 +3371,7 @@
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3328,13 +3395,13 @@
         <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -3411,64 +3478,64 @@
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J17" t="n">
-        <v>82</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M17" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.337</v>
+        <v>0.346</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
       <c r="R17" t="n">
-        <v>13.5</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>44.3</v>
+        <v>43.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V17" t="n">
         <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-1.6</v>
@@ -3483,37 +3550,37 @@
         <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>2</v>
@@ -3525,13 +3592,13 @@
         <v>5</v>
       </c>
       <c r="AU17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV17" t="n">
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX17" t="n">
         <v>27</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -3671,16 +3738,16 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>23</v>
@@ -3692,19 +3759,19 @@
         <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
@@ -3722,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -3844,22 +3911,22 @@
         <v>11</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>5</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL19" t="n">
         <v>6</v>
@@ -3871,28 +3938,28 @@
         <v>6</v>
       </c>
       <c r="AO19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP19" t="n">
         <v>5</v>
       </c>
-      <c r="AP19" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4035,10 +4102,10 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
         <v>6</v>
@@ -4050,13 +4117,13 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
         <v>17</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4089,13 +4156,13 @@
         <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4124,43 +4191,43 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>0.45</v>
+        <v>0.421</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J21" t="n">
-        <v>87.3</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.365</v>
       </c>
       <c r="O21" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.789</v>
@@ -4169,19 +4236,19 @@
         <v>11.1</v>
       </c>
       <c r="S21" t="n">
-        <v>31.9</v>
+        <v>31.4</v>
       </c>
       <c r="T21" t="n">
-        <v>42.9</v>
+        <v>42.5</v>
       </c>
       <c r="U21" t="n">
         <v>22.9</v>
       </c>
       <c r="V21" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
         <v>1.8</v>
@@ -4190,40 +4257,40 @@
         <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="AB21" t="n">
         <v>104</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.6</v>
+        <v>-4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4232,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP21" t="n">
         <v>28</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
@@ -4247,19 +4314,19 @@
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV21" t="n">
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,13 +4335,13 @@
         <v>18</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
         <v>30</v>
       </c>
       <c r="BB21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>22</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4414,34 +4481,34 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR22" t="n">
         <v>15</v>
       </c>
       <c r="AS22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
@@ -4587,7 +4654,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>3</v>
@@ -4599,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4614,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
@@ -4623,7 +4690,7 @@
         <v>16</v>
       </c>
       <c r="AW23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
@@ -4632,16 +4699,16 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4757,19 +4824,19 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,10 +4848,10 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4802,19 +4869,19 @@
         <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -4942,7 +5009,7 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>11</v>
@@ -4954,16 +5021,16 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP25" t="n">
         <v>8</v>
@@ -5002,7 +5069,7 @@
         <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -5037,52 +5104,52 @@
         <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.458</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>20.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.414</v>
+        <v>0.409</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.767</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U26" t="n">
         <v>21</v>
@@ -5091,49 +5158,49 @@
         <v>13.2</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
         <v>20.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.7</v>
+        <v>97.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AD26" t="n">
         <v>2</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>20</v>
       </c>
-      <c r="AI26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>4</v>
@@ -5142,37 +5209,37 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
@@ -5184,10 +5251,10 @@
         <v>22</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -5315,10 +5382,10 @@
         <v>14</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5330,7 +5397,7 @@
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -5345,13 +5412,13 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5363,7 +5430,7 @@
         <v>27</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -5482,16 +5549,16 @@
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ28" t="n">
         <v>26</v>
@@ -5518,10 +5585,10 @@
         <v>21</v>
       </c>
       <c r="AR28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
         <v>23</v>
@@ -5530,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="H29" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J29" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M29" t="n">
         <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.395</v>
+        <v>0.391</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="P29" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="S29" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="U29" t="n">
         <v>22.9</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="R29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="T29" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>23.1</v>
-      </c>
       <c r="V29" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
       </c>
       <c r="W29" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB29" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-4.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
@@ -5667,22 +5734,22 @@
         <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
@@ -5691,34 +5758,34 @@
         <v>4</v>
       </c>
       <c r="AO29" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
@@ -5727,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -5849,16 +5916,16 @@
         <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>3</v>
@@ -5870,22 +5937,22 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
         <v>11</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5912,7 +5979,7 @@
         <v>6</v>
       </c>
       <c r="BB30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>8</v>
@@ -6046,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM31" t="n">
         <v>16</v>
@@ -6064,7 +6131,7 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>23</v>
@@ -6073,10 +6140,10 @@
         <v>19</v>
       </c>
       <c r="AU31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6088,7 +6155,7 @@
         <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-7-2008-09</t>
+          <t>2008-12-07</t>
         </is>
       </c>
     </row>
